--- a/data/scheduling_DNN/predict/0.9/result3.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result3.xlsx
@@ -570,10 +570,10 @@
         <v>5.945752859115601</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.8830867409706116</v>
       </c>
       <c r="W2" t="n">
-        <v>31.30389404296875</v>
+        <v>25.63059043884277</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.402323007583618</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.4009184539318085</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8049678206443787</v>
+        <v>1.002811074256897</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>1.044303178787231</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.5270416140556335</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3397225141525269</v>
+        <v>0.2675595283508301</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8884220123291016</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3991706967353821</v>
       </c>
       <c r="W5" t="n">
-        <v>0.007529105059802532</v>
+        <v>0.2393668442964554</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8816509246826172</v>
       </c>
       <c r="V6" t="n">
-        <v>0.708076536655426</v>
+        <v>0.8815732002258301</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03012806735932827</v>
+        <v>6.041091182851233e-09</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8709239959716797</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.3998754024505615</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1341230273246765</v>
+        <v>0.2218867838382721</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8700020313262939</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.4001153409481049</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2046367675065994</v>
+        <v>0.2207935005426407</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9313690662384033</v>
       </c>
       <c r="V9" t="n">
-        <v>0.417663037776947</v>
+        <v>0.8873167037963867</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2638938724994659</v>
+        <v>0.001940610585734248</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8938760757446289</v>
       </c>
       <c r="V10" t="n">
-        <v>0.417653352022171</v>
+        <v>0.8703653216362</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2267880886793137</v>
+        <v>0.0005527555476874113</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9247000217437744</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.4003851711750031</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01515662856400013</v>
+        <v>0.2749060988426208</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8699769973754883</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.5204196572303772</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1652379035949707</v>
+        <v>0.1221903339028358</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8918051719665527</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5226026773452759</v>
       </c>
       <c r="W13" t="n">
-        <v>0.03708773851394653</v>
+        <v>0.136310487985611</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8858809471130371</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.4022021889686584</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05407546833157539</v>
+        <v>0.2339451462030411</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9551160335540771</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.5321531891822815</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02392893098294735</v>
+        <v>0.1788975745439529</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8975329399108887</v>
       </c>
       <c r="V16" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5307074785232544</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2302849292755127</v>
+        <v>0.1345609128475189</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8900690078735352</v>
       </c>
       <c r="V17" t="n">
-        <v>0.652911365032196</v>
+        <v>0.520603358745575</v>
       </c>
       <c r="W17" t="n">
-        <v>0.05624374747276306</v>
+        <v>0.1365048587322235</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9937880039215088</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.4002766907215118</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1160608753561974</v>
+        <v>0.3522557020187378</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>1.051740884780884</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.3999735116958618</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1243906021118164</v>
+        <v>0.4248006939888</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9284350872039795</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.5259885191917419</v>
       </c>
       <c r="W20" t="n">
-        <v>0.002269969554618001</v>
+        <v>0.1619632393121719</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9283149242401123</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.4020216166973114</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2026675492525101</v>
+        <v>0.2769846022129059</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.6615488529205322</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.875666618347168</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01876022107899189</v>
+        <v>0.04584641754627228</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.6288402080535889</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8689860105514526</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04460131004452705</v>
+        <v>0.05767000466585159</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5791630744934082</v>
       </c>
       <c r="V24" t="n">
-        <v>0.371780127286911</v>
+        <v>0.5187329053878784</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04300768673419952</v>
+        <v>0.003651805222034454</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.6175270080566406</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.5175037384033203</v>
       </c>
       <c r="W25" t="n">
-        <v>0.06041228771209717</v>
+        <v>0.01000465452671051</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.6697568893432617</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.4020947813987732</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0005260211764834821</v>
+        <v>0.07164300233125687</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.7846379280090332</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.523295521736145</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1347412317991257</v>
+        <v>0.06829985231161118</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5448260307312012</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.8810387253761292</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01617597602307796</v>
+        <v>0.1130389794707298</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.8724358081817627</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.8751115798950195</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1669691354036331</v>
+        <v>7.159754204622004e-06</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5420491695404053</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8768784999847412</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02683259733021259</v>
+        <v>0.1121106818318367</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.51739501953125</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.4010311663150787</v>
       </c>
       <c r="W31" t="n">
-        <v>0.000150938649312593</v>
+        <v>0.01354054640978575</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5705170631408691</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.8694612383842468</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06940911710262299</v>
+        <v>0.08936762064695358</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5192909240722656</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.3991727828979492</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02840909734368324</v>
+        <v>0.01442836783826351</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5214078426361084</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.3996664583683014</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0009348000749014318</v>
+        <v>0.01482096500694752</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5223710536956787</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.3991797268390656</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01729116961359978</v>
+        <v>0.01517610345035791</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5205719470977783</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.4003154337406158</v>
       </c>
       <c r="W36" t="n">
-        <v>1.451828302378999e-05</v>
+        <v>0.01446162909269333</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.581143856048584</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.3999731242656708</v>
       </c>
       <c r="W37" t="n">
-        <v>0.008150854147970676</v>
+        <v>0.03282283246517181</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5180249214172363</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.4002663195133209</v>
       </c>
       <c r="W38" t="n">
-        <v>0.005624810233712196</v>
+        <v>0.01386708859354258</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5188732147216797</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.4002704322338104</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1022518128156662</v>
+        <v>0.01406661979854107</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5202867984771729</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.8585978746414185</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0008783540688455105</v>
+        <v>0.1144543811678886</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5192568302154541</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8772060871124268</v>
       </c>
       <c r="W41" t="n">
-        <v>0.003110460238531232</v>
+        <v>0.1281276643276215</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4030828475952148</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.5310874581336975</v>
       </c>
       <c r="W42" t="n">
-        <v>0.08388207852840424</v>
+        <v>0.01638518087565899</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4053199291229248</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5233837962150574</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1594610810279846</v>
+        <v>0.01393907703459263</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3893141746520996</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5008195638656616</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01340590417385101</v>
+        <v>0.01243345160037279</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3921270370483398</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.8689752221107483</v>
       </c>
       <c r="W45" t="n">
-        <v>0.001635843771509826</v>
+        <v>0.2273841947317123</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3887588977813721</v>
       </c>
       <c r="V46" t="n">
-        <v>0.505433976650238</v>
+        <v>0.8925122022628784</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0136130740866065</v>
+        <v>0.2537674009799957</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3987650871276855</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5191328525543213</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1921746283769608</v>
+        <v>0.01448839902877808</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3914570808410645</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8668915033340454</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01787932775914669</v>
+        <v>0.2260378897190094</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3957479000091553</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.8686704039573669</v>
       </c>
       <c r="W49" t="n">
-        <v>0.01665316894650459</v>
+        <v>0.2236557006835938</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.392003059387207</v>
       </c>
       <c r="V50" t="n">
-        <v>0.802417516708374</v>
+        <v>0.5180481672286987</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1684400290250778</v>
+        <v>0.01588736847043037</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3899300098419189</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.5216352939605713</v>
       </c>
       <c r="W51" t="n">
-        <v>0.06942887604236603</v>
+        <v>0.01734628155827522</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.389854907989502</v>
       </c>
       <c r="V52" t="n">
-        <v>0.699232816696167</v>
+        <v>0.514568030834198</v>
       </c>
       <c r="W52" t="n">
-        <v>0.09571468830108643</v>
+        <v>0.01555336266756058</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4424958229064941</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5170662403106689</v>
       </c>
       <c r="W53" t="n">
-        <v>0.008417433127760887</v>
+        <v>0.005560747347772121</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3881909847259521</v>
       </c>
       <c r="V54" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.3992718756198883</v>
       </c>
       <c r="W54" t="n">
-        <v>0.3450219631195068</v>
+        <v>0.0001227861357619986</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4339370727539062</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8752867579460144</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0008734077564440668</v>
+        <v>0.1947895437479019</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3880438804626465</v>
       </c>
       <c r="V56" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5177491307258606</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07046341896057129</v>
+        <v>0.01682345196604729</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3987340927124023</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8683773875236511</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01131375972181559</v>
+        <v>0.2205648273229599</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3908939361572266</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.3999704420566559</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01834334619343281</v>
+        <v>8.238296140916646e-05</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3904039859771729</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8674632906913757</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0003406056785024703</v>
+        <v>0.2275855839252472</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3897550106048584</v>
       </c>
       <c r="V60" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5199581384658813</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01011528261005878</v>
+        <v>0.01695285364985466</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4395840167999268</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.5152441263198853</v>
       </c>
       <c r="W61" t="n">
-        <v>0.003681892761960626</v>
+        <v>0.005724451970309019</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.023046016693115</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.524991512298584</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1996699124574661</v>
+        <v>0.2480582892894745</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8680520057678223</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8783097863197327</v>
       </c>
       <c r="W63" t="n">
-        <v>0.08516113460063934</v>
+        <v>0.0001052220613928512</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8683090209960938</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.8838959336280823</v>
       </c>
       <c r="W64" t="n">
-        <v>0.07697785645723343</v>
+        <v>0.0002429518499411643</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9259071350097656</v>
       </c>
       <c r="V65" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.5722854733467102</v>
       </c>
       <c r="W65" t="n">
-        <v>0.002467337995767593</v>
+        <v>0.1250482797622681</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8776111602783203</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.4020459353923798</v>
       </c>
       <c r="W66" t="n">
-        <v>0.005663616582751274</v>
+        <v>0.2261622846126556</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8686521053314209</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.4002420604228973</v>
       </c>
       <c r="W67" t="n">
-        <v>0.08550406992435455</v>
+        <v>0.2194079756736755</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8771340847015381</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.8681830167770386</v>
       </c>
       <c r="W68" t="n">
-        <v>0.211104691028595</v>
+        <v>8.012161561055109e-05</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9272270202636719</v>
       </c>
       <c r="V69" t="n">
-        <v>0.655465304851532</v>
+        <v>0.3991791009902954</v>
       </c>
       <c r="W69" t="n">
-        <v>0.07385443150997162</v>
+        <v>0.2788346111774445</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.868394136428833</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5273633003234863</v>
       </c>
       <c r="W70" t="n">
-        <v>0.00426078075543046</v>
+        <v>0.116302028298378</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8702638149261475</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.8895252346992493</v>
       </c>
       <c r="W71" t="n">
-        <v>0.08019087463617325</v>
+        <v>0.0003710023011080921</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8926279544830322</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.4022165238857269</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2936404645442963</v>
+        <v>0.2405033707618713</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9344460964202881</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.8692477345466614</v>
       </c>
       <c r="W73" t="n">
-        <v>0.29690021276474</v>
+        <v>0.004250826314091682</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>1.00794792175293</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.8734835386276245</v>
       </c>
       <c r="W74" t="n">
-        <v>0.03177903965115547</v>
+        <v>0.01808067038655281</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8800439834594727</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.4002335965633392</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1263679414987564</v>
+        <v>0.2302180081605911</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8721909523010254</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.4009392261505127</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1455169767141342</v>
+        <v>0.2220781892538071</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8821659088134766</v>
       </c>
       <c r="V77" t="n">
-        <v>0.524641752243042</v>
+        <v>0.874355137348175</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1278235167264938</v>
+        <v>6.100815153331496e-05</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8857948780059814</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.8789401650428772</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1800107955932617</v>
+        <v>4.698709017247893e-05</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8683860301971436</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.399181604385376</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2668056190013885</v>
+        <v>0.2201527953147888</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8622159957885742</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8681347966194153</v>
       </c>
       <c r="W80" t="n">
-        <v>0.113787017762661</v>
+        <v>3.503220432321541e-05</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8666620254516602</v>
       </c>
       <c r="V81" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.3991927802562714</v>
       </c>
       <c r="W81" t="n">
-        <v>0.004377724602818489</v>
+        <v>0.2185274958610535</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5558428764343262</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5033893585205078</v>
       </c>
       <c r="W82" t="n">
-        <v>0.009504860267043114</v>
+        <v>0.002751371590420604</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5368978977203369</v>
       </c>
       <c r="V83" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8876691460609436</v>
       </c>
       <c r="W83" t="n">
-        <v>0.1925772726535797</v>
+        <v>0.1230404675006866</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5225358009338379</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.5064148902893066</v>
       </c>
       <c r="W84" t="n">
-        <v>0.02265766076743603</v>
+        <v>0.000259883760008961</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5384631156921387</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.3991094827651978</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001113387057557702</v>
+        <v>0.01941943541169167</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5558300018310547</v>
       </c>
       <c r="V86" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.871437132358551</v>
       </c>
       <c r="W86" t="n">
-        <v>0.1758826971054077</v>
+        <v>0.09960786253213882</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5278911590576172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.975210964679718</v>
+        <v>0.3991844356060028</v>
       </c>
       <c r="W87" t="n">
-        <v>0.2000950127840042</v>
+        <v>0.01656541973352432</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5133829116821289</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5269410610198975</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0001300819858442992</v>
+        <v>0.0001838234165916219</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5203299522399902</v>
       </c>
       <c r="V89" t="n">
-        <v>0.503772497177124</v>
+        <v>0.5724908113479614</v>
       </c>
       <c r="W89" t="n">
-        <v>0.000274149322649464</v>
+        <v>0.002720755292102695</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5177218914031982</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8648035526275635</v>
       </c>
       <c r="W90" t="n">
-        <v>0.002904497087001801</v>
+        <v>0.1204656809568405</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5217900276184082</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.4003685414791107</v>
       </c>
       <c r="W91" t="n">
-        <v>0.002961425576359034</v>
+        <v>0.01474317722022533</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5209360122680664</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.3999610245227814</v>
       </c>
       <c r="W92" t="n">
-        <v>1.333519139734562e-05</v>
+        <v>0.01463494729250669</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5276699066162109</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8880836367607117</v>
       </c>
       <c r="W93" t="n">
-        <v>0.03091277554631233</v>
+        <v>0.1298980563879013</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5155179500579834</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.523189902305603</v>
       </c>
       <c r="W94" t="n">
-        <v>0.009609968401491642</v>
+        <v>5.885885184397921e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5194981098175049</v>
       </c>
       <c r="V95" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8737233877182007</v>
       </c>
       <c r="W95" t="n">
-        <v>0.09897720813751221</v>
+        <v>0.1254755407571793</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5719070434570312</v>
       </c>
       <c r="V96" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4021672308444977</v>
       </c>
       <c r="W96" t="n">
-        <v>0.006794558372348547</v>
+        <v>0.02881160378456116</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5198080539703369</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5197004079818726</v>
       </c>
       <c r="W97" t="n">
-        <v>0.005019184201955795</v>
+        <v>1.158765883246815e-08</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5201311111450195</v>
       </c>
       <c r="V98" t="n">
-        <v>0.405481219291687</v>
+        <v>0.8674910664558411</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0131445974111557</v>
+        <v>0.1206589415669441</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5220580101013184</v>
       </c>
       <c r="V99" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5226815342903137</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02934923209249973</v>
+        <v>3.887824107096094e-07</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5203979015350342</v>
       </c>
       <c r="V100" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8789944052696228</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01773523539304733</v>
+        <v>0.1285914480686188</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5324001312255859</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.3991881310939789</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0131652569398284</v>
+        <v>0.01774543710052967</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4669079780578613</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5227846503257751</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0005191009258851409</v>
+        <v>0.003122202586382627</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4054429531097412</v>
       </c>
       <c r="V103" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.8726166486740112</v>
       </c>
       <c r="W103" t="n">
-        <v>0.1592998951673508</v>
+        <v>0.2182512581348419</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3941051959991455</v>
       </c>
       <c r="V104" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.4009474515914917</v>
       </c>
       <c r="W104" t="n">
-        <v>0.2001199126243591</v>
+        <v>4.681646169046871e-05</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4042239189147949</v>
       </c>
       <c r="V105" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8687143921852112</v>
       </c>
       <c r="W105" t="n">
-        <v>0.1583984047174454</v>
+        <v>0.2157513946294785</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3869490623474121</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.5162901878356934</v>
       </c>
       <c r="W106" t="n">
-        <v>0.005905839614570141</v>
+        <v>0.01672912761569023</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3908250331878662</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5222565531730652</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0180304367095232</v>
+        <v>0.01727424375712872</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3896760940551758</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8699557185173035</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01312921289354563</v>
+        <v>0.2306685149669647</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3902239799499512</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.874958336353302</v>
       </c>
       <c r="W109" t="n">
-        <v>0.02261393330991268</v>
+        <v>0.2349673956632614</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3901910781860352</v>
       </c>
       <c r="V110" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.8707424998283386</v>
       </c>
       <c r="W110" t="n">
-        <v>0.06933727860450745</v>
+        <v>0.2309296727180481</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.39339280128479</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.4009351432323456</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01246054377406836</v>
+        <v>5.688692181138322e-05</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4686710834503174</v>
       </c>
       <c r="V112" t="n">
-        <v>0.975181519985199</v>
+        <v>0.8726082444190979</v>
       </c>
       <c r="W112" t="n">
-        <v>0.2565528154373169</v>
+        <v>0.1631652265787125</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.6834900379180908</v>
       </c>
       <c r="V113" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.521014392375946</v>
       </c>
       <c r="W113" t="n">
-        <v>0.08531061559915543</v>
+        <v>0.02639833465218544</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.40848708152771</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.4009126126766205</v>
       </c>
       <c r="W114" t="n">
-        <v>0.06061606481671333</v>
+        <v>5.737257743021473e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3934600353240967</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.5209946036338806</v>
       </c>
       <c r="W115" t="n">
-        <v>0.01233628857880831</v>
+        <v>0.01626506634056568</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3943271636962891</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.8717100620269775</v>
       </c>
       <c r="W116" t="n">
-        <v>0.06733948737382889</v>
+        <v>0.2278944253921509</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3956549167633057</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.8669664263725281</v>
       </c>
       <c r="W117" t="n">
-        <v>0.06690140068531036</v>
+        <v>0.2221345454454422</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4093818664550781</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.8749155402183533</v>
       </c>
       <c r="W118" t="n">
-        <v>0.05953609570860863</v>
+        <v>0.2167215943336487</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4337210655212402</v>
       </c>
       <c r="V119" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.874341607093811</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1602902263402939</v>
+        <v>0.194146454334259</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.400670051574707</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5275931358337402</v>
       </c>
       <c r="W120" t="n">
-        <v>0.002491871826350689</v>
+        <v>0.01610946841537952</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3932690620422363</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.4010086953639984</v>
       </c>
       <c r="W121" t="n">
-        <v>0.09360681474208832</v>
+        <v>5.990192221361212e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8711731433868408</v>
       </c>
       <c r="V122" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5268307328224182</v>
       </c>
       <c r="W122" t="n">
-        <v>0.08692228049039841</v>
+        <v>0.1185716986656189</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8774368762969971</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.8898715972900391</v>
       </c>
       <c r="W123" t="n">
-        <v>0.248858630657196</v>
+        <v>0.0001546222920296714</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9265050888061523</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.4021036326885223</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1899174451828003</v>
+        <v>0.2749968469142914</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8786499500274658</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.3999543488025665</v>
       </c>
       <c r="W125" t="n">
-        <v>0.05066702142357826</v>
+        <v>0.2291494756937027</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.911376953125</v>
       </c>
       <c r="V126" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.3991898894309998</v>
       </c>
       <c r="W126" t="n">
-        <v>0.04134456068277359</v>
+        <v>0.2623355984687805</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.883713960647583</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.8718002438545227</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1543888300657272</v>
+        <v>0.0001419366453774273</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9248020648956299</v>
       </c>
       <c r="V128" t="n">
-        <v>0.490907609462738</v>
+        <v>0.4004087746143341</v>
       </c>
       <c r="W128" t="n">
-        <v>0.188264399766922</v>
+        <v>0.2749883532524109</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8692669868469238</v>
       </c>
       <c r="V129" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.4002512097358704</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2409968972206116</v>
+        <v>0.2199757993221283</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8648159503936768</v>
       </c>
       <c r="V130" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8681339621543884</v>
       </c>
       <c r="W130" t="n">
-        <v>0.003911795094609261</v>
+        <v>1.100920235330705e-05</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8667480945587158</v>
       </c>
       <c r="V131" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.4002502262592316</v>
       </c>
       <c r="W131" t="n">
-        <v>0.02662261389195919</v>
+        <v>0.2176202684640884</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9356780052185059</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4002635478973389</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1859496533870697</v>
+        <v>0.2866686284542084</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8842630386352539</v>
       </c>
       <c r="V133" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.3998391032218933</v>
       </c>
       <c r="W133" t="n">
-        <v>0.007089513819664717</v>
+        <v>0.2346665561199188</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8739171028137207</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.4024540483951569</v>
       </c>
       <c r="W134" t="n">
-        <v>0.04857310280203819</v>
+        <v>0.2222774177789688</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8755168914794922</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5205029845237732</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1487599760293961</v>
+        <v>0.1260348707437515</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.874000072479248</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.3991638123989105</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2083511352539062</v>
+        <v>0.2254694700241089</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8749480247497559</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.8705793023109436</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1378927975893021</v>
+        <v>1.908573540276848e-05</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8735060691833496</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.4020980596542358</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2732419073581696</v>
+        <v>0.2222255170345306</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8731160163879395</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.4024240672588348</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2074662744998932</v>
+        <v>0.2215509116649628</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8761031627655029</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5266522169113159</v>
       </c>
       <c r="W140" t="n">
-        <v>0.04948968440294266</v>
+        <v>0.1221159622073174</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8762381076812744</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.3991082608699799</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1484481543302536</v>
+        <v>0.2276528924703598</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5425300598144531</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.3991921842098236</v>
       </c>
       <c r="W142" t="n">
-        <v>0.006629318930208683</v>
+        <v>0.02054574713110924</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5303299427032471</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.4002662599086761</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02309850417077541</v>
+        <v>0.01691656187176704</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5818018913269043</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.5225083827972412</v>
       </c>
       <c r="W144" t="n">
-        <v>0.04432282224297523</v>
+        <v>0.003515720134600997</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5204288959503174</v>
       </c>
       <c r="V145" t="n">
-        <v>0.590633749961853</v>
+        <v>0.866849958896637</v>
       </c>
       <c r="W145" t="n">
-        <v>0.004928721580654383</v>
+        <v>0.1200075522065163</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5220580101013184</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5266411304473877</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02916743792593479</v>
+        <v>2.100499295920599e-05</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5379500389099121</v>
       </c>
       <c r="V147" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.5155918002128601</v>
       </c>
       <c r="W147" t="n">
-        <v>0.191664919257164</v>
+        <v>0.000499890826176852</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5232589244842529</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5268778800964355</v>
       </c>
       <c r="W148" t="n">
-        <v>0.01693131774663925</v>
+        <v>1.309684012085199e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5255138874053955</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.4009189903736115</v>
       </c>
       <c r="W149" t="n">
-        <v>0.003801407059654593</v>
+        <v>0.01552388817071915</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5638060569763184</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.3996601998806</v>
       </c>
       <c r="W150" t="n">
-        <v>0.03457216545939445</v>
+        <v>0.0269438624382019</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.526716947555542</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.3996659517288208</v>
       </c>
       <c r="W151" t="n">
-        <v>0.001317486865445971</v>
+        <v>0.01614195480942726</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5442018508911133</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.400283545255661</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0160209946334362</v>
+        <v>0.02071247808635235</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5199310779571533</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.5242307782173157</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01778003200888634</v>
+        <v>1.848742249421775e-05</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5260131359100342</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5234860777854919</v>
       </c>
       <c r="W154" t="n">
-        <v>0.00420701876282692</v>
+        <v>6.386022960214177e-06</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5269739627838135</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.5077998042106628</v>
       </c>
       <c r="W155" t="n">
-        <v>0.03104234486818314</v>
+        <v>0.0003676483465824276</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5227911472320557</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.8612529635429382</v>
       </c>
       <c r="W156" t="n">
-        <v>0.002872456563636661</v>
+        <v>0.1145564019680023</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5201258659362793</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.3996829390525818</v>
       </c>
       <c r="W157" t="n">
-        <v>0.02868803218007088</v>
+        <v>0.01450649835169315</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5201921463012695</v>
       </c>
       <c r="V158" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5320022702217102</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0796104222536087</v>
+        <v>0.0001394790306221694</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5204060077667236</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8708900809288025</v>
       </c>
       <c r="W159" t="n">
-        <v>0.000940576836001128</v>
+        <v>0.1228390857577324</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.575502872467041</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5174331068992615</v>
       </c>
       <c r="W160" t="n">
-        <v>0.05051063746213913</v>
+        <v>0.003372097620740533</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5227921009063721</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5115017890930176</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0003201792424079031</v>
+        <v>0.0001274711394216865</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3967180252075195</v>
       </c>
       <c r="V162" t="n">
-        <v>0.97564297914505</v>
+        <v>0.8741445541381836</v>
       </c>
       <c r="W162" t="n">
-        <v>0.335154116153717</v>
+        <v>0.2279360890388489</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3966259956359863</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.869494616985321</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01132961455732584</v>
+        <v>0.2236047387123108</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3924560546875</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8825821280479431</v>
       </c>
       <c r="W164" t="n">
-        <v>0.009610973298549652</v>
+        <v>0.2402235716581345</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3941440582275391</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.5735310316085815</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0005514138611033559</v>
+        <v>0.03217968717217445</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4394950866699219</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.532447338104248</v>
       </c>
       <c r="W166" t="n">
-        <v>0.002593126613646746</v>
+        <v>0.00864012073725462</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3968589305877686</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.8729638457298279</v>
       </c>
       <c r="W167" t="n">
-        <v>0.06446614116430283</v>
+        <v>0.226675882935524</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3933479785919189</v>
       </c>
       <c r="V168" t="n">
-        <v>0.372467577457428</v>
+        <v>0.4025653004646301</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0004359911545179784</v>
+        <v>8.495902147842571e-05</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3951339721679688</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.8752433657646179</v>
       </c>
       <c r="W169" t="n">
-        <v>0.03514409065246582</v>
+        <v>0.230505034327507</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3934040069580078</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5059154033660889</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06695345789194107</v>
+        <v>0.01265881396830082</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3920400142669678</v>
       </c>
       <c r="V171" t="n">
-        <v>0.417630136013031</v>
+        <v>0.5323972105979919</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0006548543460667133</v>
+        <v>0.01970014348626137</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4604871273040771</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.4021612107753754</v>
       </c>
       <c r="W172" t="n">
-        <v>0.001844265148974955</v>
+        <v>0.003401912515982985</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3986358642578125</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5206358432769775</v>
       </c>
       <c r="W173" t="n">
-        <v>0.008459357544779778</v>
+        <v>0.01488399505615234</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4185209274291992</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.8728076815605164</v>
       </c>
       <c r="W174" t="n">
-        <v>0.005165219772607088</v>
+        <v>0.2063764482736588</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.397615909576416</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5261906385421753</v>
       </c>
       <c r="W175" t="n">
-        <v>0.09096736460924149</v>
+        <v>0.01653146184980869</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3952150344848633</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.8676904439926147</v>
       </c>
       <c r="W176" t="n">
-        <v>0.0005328359548002481</v>
+        <v>0.2232330143451691</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4167029857635498</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.5176673531532288</v>
       </c>
       <c r="W177" t="n">
-        <v>0.007672818843275309</v>
+        <v>0.01019380334764719</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4565739631652832</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8880993723869324</v>
       </c>
       <c r="W178" t="n">
-        <v>0.001513872295618057</v>
+        <v>0.1862141788005829</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3953800201416016</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.4006177484989166</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0005419942317530513</v>
+        <v>2.743379809544422e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3952269554138184</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.3991141617298126</v>
       </c>
       <c r="W180" t="n">
-        <v>0.004393560811877251</v>
+        <v>1.511037316959118e-05</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.40985107421875</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.8709163069725037</v>
       </c>
       <c r="W181" t="n">
-        <v>0.02985084056854248</v>
+        <v>0.212581142783165</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8757898807525635</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.5227261185646057</v>
       </c>
       <c r="W182" t="n">
-        <v>0.005049837287515402</v>
+        <v>0.1246540173888206</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9216158390045166</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.5263920426368713</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1745607256889343</v>
+        <v>0.1562018543481827</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8719899654388428</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.8618423342704773</v>
       </c>
       <c r="W184" t="n">
-        <v>0.04800835996866226</v>
+        <v>0.0001029744162224233</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8814821243286133</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.5228539109230042</v>
       </c>
       <c r="W185" t="n">
-        <v>0.2151583284139633</v>
+        <v>0.1286142021417618</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8747470378875732</v>
       </c>
       <c r="V186" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.4000993072986603</v>
       </c>
       <c r="W186" t="n">
-        <v>0.0101568391546607</v>
+        <v>0.2252904623746872</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9553229808807373</v>
       </c>
       <c r="V187" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8828228116035461</v>
       </c>
       <c r="W187" t="n">
-        <v>0.3700124025344849</v>
+        <v>0.005256274715065956</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8733320236206055</v>
       </c>
       <c r="V188" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5226408243179321</v>
       </c>
       <c r="W188" t="n">
-        <v>0.00514027988538146</v>
+        <v>0.1229843199253082</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8774330615997314</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3991822898387909</v>
       </c>
       <c r="W189" t="n">
-        <v>0.0908503383398056</v>
+        <v>0.2287237942218781</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.906519889831543</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.5290172696113586</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2858298718929291</v>
+        <v>0.1425082236528397</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9388799667358398</v>
       </c>
       <c r="V191" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5224675536155701</v>
       </c>
       <c r="W191" t="n">
-        <v>0.01802134700119495</v>
+        <v>0.1733992993831635</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8722100257873535</v>
       </c>
       <c r="V192" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5120091438293457</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1458014100790024</v>
+        <v>0.129744678735733</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8767149448394775</v>
       </c>
       <c r="V193" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.3992903828620911</v>
       </c>
       <c r="W193" t="n">
-        <v>0.005578380078077316</v>
+        <v>0.2279342114925385</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8663032054901123</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.5276756882667542</v>
       </c>
       <c r="W194" t="n">
-        <v>0.04545089974999428</v>
+        <v>0.1146685928106308</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9308040142059326</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.4009473621845245</v>
       </c>
       <c r="W195" t="n">
-        <v>0.3052006661891937</v>
+        <v>0.2807480990886688</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.883652925491333</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.3998845219612122</v>
       </c>
       <c r="W196" t="n">
-        <v>0.09089212864637375</v>
+        <v>0.2340318709611893</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8913240432739258</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.4003805220127106</v>
       </c>
       <c r="W197" t="n">
-        <v>0.007823489606380463</v>
+        <v>0.2410255372524261</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>1.003369808197021</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.5210605263710022</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2280684858560562</v>
+        <v>0.2326222360134125</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8833379745483398</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.5104319453239441</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1285674721002579</v>
+        <v>0.1390589028596878</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8711180686950684</v>
       </c>
       <c r="V200" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.8845975995063782</v>
       </c>
       <c r="W200" t="n">
-        <v>0.004677943885326385</v>
+        <v>0.0001816977455746382</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9243350028991699</v>
       </c>
       <c r="V201" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8881567716598511</v>
       </c>
       <c r="W201" t="n">
-        <v>0.07387040555477142</v>
+        <v>0.001308864448219538</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5236968994140625</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8815134167671204</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02643371373414993</v>
+        <v>0.1280326545238495</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5743749141693115</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.8754047155380249</v>
       </c>
       <c r="W203" t="n">
-        <v>0.007059573661535978</v>
+        <v>0.09061893820762634</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5474390983581543</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5212749242782593</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01928545720875263</v>
+        <v>0.0006845640018582344</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5211119651794434</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.3998391330242157</v>
       </c>
       <c r="W205" t="n">
-        <v>2.074899202852976e-05</v>
+        <v>0.01470709964632988</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.521172046661377</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.4010114967823029</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0009176037274301052</v>
+        <v>0.01443855743855238</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5233850479125977</v>
       </c>
       <c r="V207" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.5222238898277283</v>
       </c>
       <c r="W207" t="n">
-        <v>0.2044928669929504</v>
+        <v>1.348288151348243e-06</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5730509757995605</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.3991946876049042</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01243744697421789</v>
+        <v>0.03022600896656513</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5203030109405518</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.4002871811389923</v>
       </c>
       <c r="W209" t="n">
-        <v>0.003189969109371305</v>
+        <v>0.01440379954874516</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5211770534515381</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8922721743583679</v>
       </c>
       <c r="W210" t="n">
-        <v>0.005404849071055651</v>
+        <v>0.1377115845680237</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5285830497741699</v>
       </c>
       <c r="V211" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8714648485183716</v>
       </c>
       <c r="W211" t="n">
-        <v>0.2002334147691727</v>
+        <v>0.1175679266452789</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.525137186050415</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.4004140496253967</v>
       </c>
       <c r="W212" t="n">
-        <v>0.003292480483651161</v>
+        <v>0.0155558604747057</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5246059894561768</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.51015305519104</v>
       </c>
       <c r="W213" t="n">
-        <v>0.02359034307301044</v>
+        <v>0.000208887315238826</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5465149879455566</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.4002229571342468</v>
       </c>
       <c r="W214" t="n">
-        <v>0.001654837396927178</v>
+        <v>0.02140135876834393</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5257470607757568</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.5267398953437805</v>
       </c>
       <c r="W215" t="n">
-        <v>0.09235716611146927</v>
+        <v>9.857204759100568e-07</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5318009853363037</v>
       </c>
       <c r="V216" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8684853315353394</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02550518698990345</v>
+        <v>0.113356351852417</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5218098163604736</v>
       </c>
       <c r="V217" t="n">
-        <v>0.490833193063736</v>
+        <v>0.3991668820381165</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0009595511946827173</v>
+        <v>0.01504128891974688</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5193781852722168</v>
       </c>
       <c r="V218" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.8744221329689026</v>
       </c>
       <c r="W218" t="n">
-        <v>0.208134651184082</v>
+        <v>0.1260562092065811</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5870599746704102</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.3991533219814301</v>
       </c>
       <c r="W219" t="n">
-        <v>0.006660614162683487</v>
+        <v>0.03530890867114067</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5251181125640869</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.4004140198230743</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01154724601656199</v>
+        <v>0.01555111072957516</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5251779556274414</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.3999679386615753</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01600208692252636</v>
+        <v>0.0156775489449501</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3907299041748047</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.5238729119300842</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01304037310183048</v>
+        <v>0.01772706024348736</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3944621086120605</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8696051836013794</v>
       </c>
       <c r="W223" t="n">
-        <v>0.03307057917118073</v>
+        <v>0.2257609367370605</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3939080238342285</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8678078651428223</v>
       </c>
       <c r="W224" t="n">
-        <v>0.004563570488244295</v>
+        <v>0.2245810627937317</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3995401859283447</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8888587951660156</v>
       </c>
       <c r="W225" t="n">
-        <v>0.008239815942943096</v>
+        <v>0.2394327074289322</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3947958946228027</v>
       </c>
       <c r="V226" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5217271447181702</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1652138382196426</v>
+        <v>0.01611154153943062</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3962509632110596</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.5457510352134705</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0004580150416586548</v>
+        <v>0.02235027216374874</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3982570171356201</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.878566563129425</v>
       </c>
       <c r="W228" t="n">
-        <v>8.946964953793213e-05</v>
+        <v>0.2306972593069077</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.407926082611084</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5278284549713135</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0600583590567112</v>
+        <v>0.01437657885253429</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3979439735412598</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5227989554405212</v>
       </c>
       <c r="W230" t="n">
-        <v>0.01119432784616947</v>
+        <v>0.01558876689523458</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3971788883209229</v>
       </c>
       <c r="V231" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.5193320512771606</v>
       </c>
       <c r="W231" t="n">
-        <v>0.162641704082489</v>
+        <v>0.01492139510810375</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3999969959259033</v>
       </c>
       <c r="V232" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.8648520708084106</v>
       </c>
       <c r="W232" t="n">
-        <v>0.09493878483772278</v>
+        <v>0.2160902470350266</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.396759033203125</v>
       </c>
       <c r="V233" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.522753119468689</v>
       </c>
       <c r="W233" t="n">
-        <v>0.09702230989933014</v>
+        <v>0.01587451063096523</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3967180252075195</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.4002865552902222</v>
       </c>
       <c r="W234" t="n">
-        <v>0.08768779039382935</v>
+        <v>1.273440739169018e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4009778499603271</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.5228978991508484</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0002734096487984061</v>
+        <v>0.01486449874937534</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3965721130371094</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.5224887132644653</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0004401166515890509</v>
+        <v>0.01585499010980129</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3978939056396484</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.5227068066596985</v>
       </c>
       <c r="W237" t="n">
-        <v>0.00430304417386651</v>
+        <v>0.01557826064527035</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3946290016174316</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.5174705982208252</v>
       </c>
       <c r="W238" t="n">
-        <v>0.005561609286814928</v>
+        <v>0.01509005762636662</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4182898998260498</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8775990605354309</v>
       </c>
       <c r="W239" t="n">
-        <v>0.005077754613012075</v>
+        <v>0.2109649032354355</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4336950778961182</v>
       </c>
       <c r="V240" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5176507234573364</v>
       </c>
       <c r="W240" t="n">
-        <v>0.00687558064237237</v>
+        <v>0.00704855052754283</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.398798942565918</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.5226602554321289</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0003545150684658438</v>
+        <v>0.0153416246175766</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9465889930725098</v>
       </c>
       <c r="V242" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8689826130867004</v>
       </c>
       <c r="W242" t="n">
-        <v>0.01175094489008188</v>
+        <v>0.006022750400006771</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.883519172668457</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.3998850584030151</v>
       </c>
       <c r="W243" t="n">
-        <v>0.03641296923160553</v>
+        <v>0.2339019626379013</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8847579956054688</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5205063223838806</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2553131878376007</v>
+        <v>0.132679283618927</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8791909217834473</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8973156213760376</v>
       </c>
       <c r="W245" t="n">
-        <v>0.0918378084897995</v>
+        <v>0.0003285047423560172</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9394750595092773</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.3991769254207611</v>
       </c>
       <c r="W246" t="n">
-        <v>0.08134988695383072</v>
+        <v>0.2919220328330994</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8899149894714355</v>
       </c>
       <c r="V247" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.51310795545578</v>
       </c>
       <c r="W247" t="n">
-        <v>0.2946250438690186</v>
+        <v>0.1419835388660431</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8772459030151367</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8754305243492126</v>
       </c>
       <c r="W248" t="n">
-        <v>0.09073657542467117</v>
+        <v>3.29559975398297e-06</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8970189094543457</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.3996857106685638</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2756420075893402</v>
+        <v>0.2473403066396713</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9348878860473633</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.5225591659545898</v>
       </c>
       <c r="W250" t="n">
-        <v>0.3412055373191833</v>
+        <v>0.1700149774551392</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9329957962036133</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.3991094827651978</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2655968964099884</v>
+        <v>0.2850345969200134</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9053869247436523</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5227507352828979</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2845864593982697</v>
+        <v>0.1464104503393173</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9161319732666016</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.3991717398166656</v>
       </c>
       <c r="W253" t="n">
-        <v>0.06881846487522125</v>
+        <v>0.2672479152679443</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>1.027273178100586</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8714500069618225</v>
       </c>
       <c r="W254" t="n">
-        <v>0.03728267550468445</v>
+        <v>0.0242808610200882</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8848731517791748</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8880706429481506</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2852917015552521</v>
+        <v>1.022395008476451e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8763890266418457</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.402195006608963</v>
       </c>
       <c r="W256" t="n">
-        <v>0.04931496828794479</v>
+        <v>0.2248599678277969</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8796389102935791</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.3991591334342957</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1401921510696411</v>
+        <v>0.2308608144521713</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8796989917755127</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.3999813497066498</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1252676248550415</v>
+        <v>0.2301290184259415</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8823080062866211</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8673468232154846</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1750868260860443</v>
+        <v>0.000223836992518045</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8731160163879395</v>
       </c>
       <c r="V260" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8701936602592468</v>
       </c>
       <c r="W260" t="n">
-        <v>0.001215087715536356</v>
+        <v>8.540165254089516e-06</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8817441463470459</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.4002355933189392</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1766370683908463</v>
+        <v>0.2318504899740219</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5441410541534424</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.5234657526016235</v>
       </c>
       <c r="W262" t="n">
-        <v>0.001027822378091514</v>
+        <v>0.000427468097768724</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5430498123168945</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5215292572975159</v>
       </c>
       <c r="W263" t="n">
-        <v>0.03669347614049911</v>
+        <v>0.0004631342890206724</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5265190601348877</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.4002454876899719</v>
       </c>
       <c r="W264" t="n">
-        <v>0.003930636215955019</v>
+        <v>0.01594501547515392</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.530832052230835</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.4009475708007812</v>
       </c>
       <c r="W265" t="n">
-        <v>0.001604506280273199</v>
+        <v>0.01686997897922993</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5277059078216553</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.5238288044929504</v>
       </c>
       <c r="W266" t="n">
-        <v>0.03130724653601646</v>
+        <v>1.503193016105797e-05</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.580672025680542</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8661870360374451</v>
       </c>
       <c r="W267" t="n">
-        <v>0.05286242440342903</v>
+        <v>0.08151882141828537</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5297980308532715</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.3998704254627228</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0154050188139081</v>
+        <v>0.01688118278980255</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5297999382019043</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.8641941547393799</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01260233111679554</v>
+        <v>0.1118194907903671</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5274658203125</v>
       </c>
       <c r="V270" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.8865057826042175</v>
       </c>
       <c r="W270" t="n">
-        <v>0.09379474073648453</v>
+        <v>0.1289096921682358</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5341780185699463</v>
       </c>
       <c r="V271" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8866049647331238</v>
       </c>
       <c r="W271" t="n">
-        <v>0.07090461999177933</v>
+        <v>0.1242047548294067</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6117849349975586</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.4024743139743805</v>
       </c>
       <c r="W272" t="n">
-        <v>0.007618470583111048</v>
+        <v>0.04381093755364418</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5235409736633301</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.3998451828956604</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0003599247138481587</v>
+        <v>0.01530064828693867</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5503199100494385</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8678061366081238</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01091186702251434</v>
+        <v>0.1007975041866302</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5267140865325928</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.399838775396347</v>
       </c>
       <c r="W275" t="n">
-        <v>0.002392277587205172</v>
+        <v>0.01609734445810318</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5267341136932373</v>
       </c>
       <c r="V276" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5281315445899963</v>
       </c>
       <c r="W276" t="n">
-        <v>0.07491485774517059</v>
+        <v>1.952813136085751e-06</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5272860527038574</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8678228259086609</v>
       </c>
       <c r="W277" t="n">
-        <v>1.132101374423655e-06</v>
+        <v>0.1159652918577194</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5288281440734863</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8702162504196167</v>
       </c>
       <c r="W278" t="n">
-        <v>1.616595545783639e-05</v>
+        <v>0.1165458410978317</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5314769744873047</v>
       </c>
       <c r="V279" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.3991807401180267</v>
       </c>
       <c r="W279" t="n">
-        <v>0.07425974309444427</v>
+        <v>0.01750229299068451</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5244569778442383</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.5219101905822754</v>
       </c>
       <c r="W280" t="n">
-        <v>0.02990822866559029</v>
+        <v>6.486125130322762e-06</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5237269401550293</v>
       </c>
       <c r="V281" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8896253705024719</v>
       </c>
       <c r="W281" t="n">
-        <v>0.03235006704926491</v>
+        <v>0.1338816583156586</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.404116153717041</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.5284514427185059</v>
       </c>
       <c r="W282" t="n">
-        <v>0.03357056155800819</v>
+        <v>0.01545926369726658</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4564518928527832</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8712314367294312</v>
       </c>
       <c r="W283" t="n">
-        <v>0.004618491977453232</v>
+        <v>0.1720420718193054</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4035768508911133</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5227290391921997</v>
       </c>
       <c r="W284" t="n">
-        <v>0.02983002178370953</v>
+        <v>0.01419724430888891</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4036400318145752</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.3991804420948029</v>
       </c>
       <c r="W285" t="n">
-        <v>0.00330445496365428</v>
+        <v>1.988794065255206e-05</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4009411334991455</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5226601362228394</v>
       </c>
       <c r="W286" t="n">
-        <v>0.03292535990476608</v>
+        <v>0.01481551583856344</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.398486852645874</v>
       </c>
       <c r="V287" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.8707603812217712</v>
       </c>
       <c r="W287" t="n">
-        <v>0.09584606438875198</v>
+        <v>0.2230422794818878</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4076180458068848</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5132614374160767</v>
       </c>
       <c r="W288" t="n">
-        <v>0.03048930317163467</v>
+        <v>0.01116052642464638</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4693329334259033</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.5177580714225769</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01406196132302284</v>
+        <v>0.002344993874430656</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3993799686431885</v>
       </c>
       <c r="V290" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.4020923376083374</v>
       </c>
       <c r="W290" t="n">
-        <v>0.332060843706131</v>
+        <v>7.3569453888922e-06</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4037408828735352</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.8672984838485718</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0006285771960392594</v>
+        <v>0.2148856520652771</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4057760238647461</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8630250096321106</v>
       </c>
       <c r="W292" t="n">
-        <v>0.03287556394934654</v>
+        <v>0.2090766280889511</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4014339447021484</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.3991771936416626</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0002626217610668391</v>
+        <v>5.09292522110627e-06</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4052119255065918</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.8729258179664612</v>
       </c>
       <c r="W294" t="n">
-        <v>0.06180549040436745</v>
+        <v>0.2187562882900238</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4506208896636963</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.5174304842948914</v>
       </c>
       <c r="W295" t="n">
-        <v>0.005504689645022154</v>
+        <v>0.004463521763682365</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.400460958480835</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.4010199904441833</v>
       </c>
       <c r="W296" t="n">
-        <v>0.003680731868371367</v>
+        <v>3.125167324924405e-07</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4033129215240479</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5223284363746643</v>
       </c>
       <c r="W297" t="n">
-        <v>0.08756936341524124</v>
+        <v>0.01416469272226095</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3991761207580566</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8685983419418335</v>
       </c>
       <c r="W298" t="n">
-        <v>0.01582426391541958</v>
+        <v>0.2203572243452072</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4018728733062744</v>
       </c>
       <c r="V299" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8687799572944641</v>
       </c>
       <c r="W299" t="n">
-        <v>0.0002483664720784873</v>
+        <v>0.2180022299289703</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.406486988067627</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.401044100522995</v>
       </c>
       <c r="W300" t="n">
-        <v>0.03543272241950035</v>
+        <v>2.96250254905317e-05</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4470851421356201</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.8885623216629028</v>
       </c>
       <c r="W301" t="n">
-        <v>0.06358382850885391</v>
+        <v>0.1949021071195602</v>
       </c>
     </row>
     <row r="302" spans="1:23">
